--- a/test list_Ha.xlsx
+++ b/test list_Ha.xlsx
@@ -887,7 +887,7 @@
   <dimension ref="A2:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>137</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2"/>
     </row>

--- a/test list_Ha.xlsx
+++ b/test list_Ha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="143">
   <si>
     <t>No</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t xml:space="preserve">Click send request --&gt; validate ko có server được add --&gt; thêm server rồi nhưng vẫn còn dòng validate. Lúc này bấm send request ko được nữa </t>
+  </si>
+  <si>
+    <t>Process request</t>
+  </si>
+  <si>
+    <t>Bây giờ những chỗ validation ko cho reject luôn. Ví dụ process request add server, ko chọn default ip và location thì nó ko cho bấm nút reject luôn</t>
   </si>
 </sst>
 </file>
@@ -887,7 +893,7 @@
   <dimension ref="A2:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,11 +2151,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>84</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="B82" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">

--- a/test list_Ha.xlsx
+++ b/test list_Ha.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tien Huynh\Desktop\Data\GitHub_20012016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -460,7 +460,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,8 +892,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>115</v>
@@ -2042,7 +2042,7 @@
         <v>130</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2"/>
     </row>

--- a/test list_Ha.xlsx
+++ b/test list_Ha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="144">
   <si>
     <t>No</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Bây giờ những chỗ validation ko cho reject luôn. Ví dụ process request add server, ko chọn default ip và location thì nó ko cho bấm nút reject luôn</t>
+  </si>
+  <si>
+    <t>Test lai realtime. Check trang thai truoc khi xu ly request</t>
   </si>
 </sst>
 </file>
@@ -892,8 +895,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,20 +1686,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+    <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
         <v>52</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="2"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -2117,7 +2120,7 @@
         <v>138</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -2170,7 +2173,15 @@
       <c r="A83" s="5">
         <v>85</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="B83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
